--- a/atividades/tabelas_de_consulta/codigos_tensoes.xlsx
+++ b/atividades/tabelas_de_consulta/codigos_tensoes.xlsx
@@ -1541,7 +1541,7 @@
   <sheetPr/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
